--- a/stats bei jedem System.xlsx
+++ b/stats bei jedem System.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\TSE\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="288" yWindow="132" windowWidth="18324" windowHeight="6936"/>
+    <workbookView xWindow="285" yWindow="135" windowWidth="18330" windowHeight="6930"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
   <si>
     <t>Number of Trades</t>
   </si>
@@ -24,12 +29,6 @@
     <t>Average Return per Trade [ART]</t>
   </si>
   <si>
-    <t>STATISTIKEN</t>
-  </si>
-  <si>
-    <t>p_Value of ART via t test</t>
-  </si>
-  <si>
     <t>Min Return</t>
   </si>
   <si>
@@ -39,27 +38,9 @@
     <t>Max Drawdown</t>
   </si>
   <si>
-    <t>Consecutive Wins trades</t>
-  </si>
-  <si>
-    <t>Consecutive Wins %</t>
-  </si>
-  <si>
     <t>Consecutive Losses #</t>
   </si>
   <si>
-    <t>Consecutive Losses %</t>
-  </si>
-  <si>
-    <t>average Consecutive Losses</t>
-  </si>
-  <si>
-    <t>average Consecutive Wins</t>
-  </si>
-  <si>
-    <t>Trade based</t>
-  </si>
-  <si>
     <t>Profit Factor</t>
   </si>
   <si>
@@ -69,9 +50,6 @@
     <t>Percent of long Trades</t>
   </si>
   <si>
-    <t>Percenr of short Trades</t>
-  </si>
-  <si>
     <t>average Return per long Trade [lART]</t>
   </si>
   <si>
@@ -87,27 +65,9 @@
     <t>Our Ratio</t>
   </si>
   <si>
-    <t>R^2/SD*sqrt(N)</t>
-  </si>
-  <si>
-    <t>Daily Based measures</t>
-  </si>
-  <si>
-    <t>Annualized average return</t>
-  </si>
-  <si>
-    <t>Sharpe ratio Annualized</t>
-  </si>
-  <si>
-    <t>Sortino Ratio annualized</t>
-  </si>
-  <si>
     <t>averageMFE</t>
   </si>
   <si>
-    <t>Average MAE</t>
-  </si>
-  <si>
     <t>Median Duration</t>
   </si>
   <si>
@@ -120,17 +80,122 @@
     <t>Max Duration</t>
   </si>
   <si>
-    <t>Proposed Leverage</t>
-  </si>
-  <si>
-    <t>Max Drawdown duration</t>
+    <t>"Underlying"</t>
+  </si>
+  <si>
+    <t>"System XY"</t>
+  </si>
+  <si>
+    <t>timeframe</t>
+  </si>
+  <si>
+    <t>Variabeln</t>
+  </si>
+  <si>
+    <t>Berechnung/ Erklärung</t>
+  </si>
+  <si>
+    <t>Name des Systems</t>
+  </si>
+  <si>
+    <t>auf welchem Underlying (EURUSD, EURCHF, etc)</t>
+  </si>
+  <si>
+    <t>Welches Datentimeframe (5min, 15min)</t>
+  </si>
+  <si>
+    <t>mean(return)</t>
+  </si>
+  <si>
+    <t>p_Value of ART</t>
+  </si>
+  <si>
+    <t>p-Value Export aus t-Test von mean(return)</t>
+  </si>
+  <si>
+    <t>median(return)</t>
+  </si>
+  <si>
+    <t>min(return)</t>
+  </si>
+  <si>
+    <t>max(return)</t>
+  </si>
+  <si>
+    <t>Sum(if position==1)/ number of Trades</t>
+  </si>
+  <si>
+    <t>mean(return when position==1)</t>
+  </si>
+  <si>
+    <t>p-Value Export aus t-Test von oberer Zelle</t>
+  </si>
+  <si>
+    <t>Percent of short Trades</t>
+  </si>
+  <si>
+    <t>Sum(if position== -1)/ number of Trades</t>
+  </si>
+  <si>
+    <t>mean(return when position== -1)</t>
+  </si>
+  <si>
+    <t>intuitiv</t>
+  </si>
+  <si>
+    <t>muss mit for schlaufe berechnet werden</t>
+  </si>
+  <si>
+    <t>Consecutive Wins trades #</t>
+  </si>
+  <si>
+    <t>wie viele gewinnende trades hintereinander</t>
+  </si>
+  <si>
+    <t>wie viele verlierende trades hintereinander</t>
+  </si>
+  <si>
+    <t>Anzahl totale Trades N</t>
+  </si>
+  <si>
+    <t>(return^2)/sd(return)*sqrt(N)</t>
+  </si>
+  <si>
+    <t>Quadierter Gewinn über die standardabweichung der Gewinne und dies noch mal die Wurzel der Anzahl total trades</t>
+  </si>
+  <si>
+    <t>max(exittime-entrytime)</t>
+  </si>
+  <si>
+    <t>soll in der Form 6.5 h rauskommen</t>
+  </si>
+  <si>
+    <t>analog zu oben mit min</t>
+  </si>
+  <si>
+    <t>analog zu oben mit median</t>
+  </si>
+  <si>
+    <t>Max Drawdown duration in Trades</t>
+  </si>
+  <si>
+    <t>http://managed-futures-blog.attaincapital.com/2013/10/08/the-2-important-drawdown-measurements-how-deep-how-long/</t>
+  </si>
+  <si>
+    <t>der Link rechts erklärt dir Max drawdown and duration</t>
+  </si>
+  <si>
+    <t>max  "nach wievielen Trades" wieder ein neues hoch erreicht wird</t>
+  </si>
+  <si>
+    <t>Bruttogewinn/Bruttoverlust</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,14 +204,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="20"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -173,23 +247,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -227,9 +311,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -261,9 +345,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -295,9 +380,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -470,219 +556,280 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" activeCellId="1" sqref="A28 A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="1" max="1" width="34.140625" customWidth="1"/>
+    <col min="2" max="2" width="48.42578125" customWidth="1"/>
+    <col min="3" max="3" width="43.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="25.8">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="21">
-      <c r="A2" s="2" t="s">
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="21">
-      <c r="A32" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
-        <v>27</v>
-      </c>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+    </row>
+    <row r="30" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A30" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
